--- a/biology/Botanique/Cytisus_decumbens/Cytisus_decumbens.xlsx
+++ b/biology/Botanique/Cytisus_decumbens/Cytisus_decumbens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cytise pédonculé, Cytise retombant, Cytise rampant
 Le Cytise pédonculé (Cytisus decumbens), également connu sous les noms de Cytise retombant ou Cytise rampant, est une espèce de plante de la famille des Fabacées.
